--- a/Doc/PHD_Papers/Thesis_Paper/Single-hop_Wireless_Network/修改/测试数据/Nodes_test(Finished)/0.5MB/0.5MB.xlsx
+++ b/Doc/PHD_Papers/Thesis_Paper/Single-hop_Wireless_Network/修改/测试数据/Nodes_test(Finished)/0.5MB/0.5MB.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhang\Desktop\Github Study\Blockchain\Doc\PHD_Papers\Thesis_Paper\Single-hop_Wireless_Network\修改\测试数据\Nodes_test(SWIB)\0.5MB\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhang\Desktop\Github Study\Blockchain\Doc\PHD_Papers\Thesis_Paper\Single-hop_Wireless_Network\修改\测试数据\Nodes_test(Finished)\0.5MB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D72C4AC-F9D7-41FA-8C0E-2F515832F2E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6F81F91-EE85-4579-BA07-02FD1496F9C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -7238,19 +7238,19 @@
         <v>2238.1999999999998</v>
       </c>
       <c r="C2" s="1">
-        <f>B2*50/1000000</f>
-        <v>0.11190999999999998</v>
+        <f>B2*2*50/1000000</f>
+        <v>0.22381999999999996</v>
       </c>
       <c r="D2" s="1">
         <f>E2/C2</f>
-        <v>9141.2742382271481</v>
+        <v>4570.637119113574</v>
       </c>
       <c r="E2">
         <v>1023</v>
       </c>
       <c r="G2" s="1">
         <f>FLOOR(D2,1)</f>
-        <v>9141</v>
+        <v>4570</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -7261,19 +7261,19 @@
         <v>2347.9</v>
       </c>
       <c r="C3" s="1">
-        <f t="shared" ref="C3:C11" si="0">B3*50/1000000</f>
-        <v>0.117395</v>
+        <f t="shared" ref="C3:C11" si="0">B3*2*50/1000000</f>
+        <v>0.23479</v>
       </c>
       <c r="D3" s="1">
         <f t="shared" ref="D3:D11" si="1">E3/C3</f>
-        <v>8714.1701094595173</v>
+        <v>4357.0850547297587</v>
       </c>
       <c r="E3">
         <v>1023</v>
       </c>
       <c r="G3" s="1">
         <f t="shared" ref="G3:G11" si="2">FLOOR(D3,1)</f>
-        <v>8714</v>
+        <v>4357</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -7285,18 +7285,18 @@
       </c>
       <c r="C4" s="1">
         <f t="shared" si="0"/>
-        <v>0.12083000000000001</v>
+        <v>0.24166000000000001</v>
       </c>
       <c r="D4" s="1">
         <f t="shared" si="1"/>
-        <v>8466.4404535297526</v>
+        <v>4233.2202267648763</v>
       </c>
       <c r="E4">
         <v>1023</v>
       </c>
       <c r="G4" s="1">
         <f t="shared" si="2"/>
-        <v>8466</v>
+        <v>4233</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -7308,18 +7308,18 @@
       </c>
       <c r="C5" s="1">
         <f t="shared" si="0"/>
-        <v>0.12958</v>
+        <v>0.25916</v>
       </c>
       <c r="D5" s="1">
         <f t="shared" si="1"/>
-        <v>7894.7368421052633</v>
+        <v>3947.3684210526317</v>
       </c>
       <c r="E5">
         <v>1023</v>
       </c>
       <c r="G5" s="1">
         <f t="shared" si="2"/>
-        <v>7894</v>
+        <v>3947</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -7331,18 +7331,18 @@
       </c>
       <c r="C6" s="1">
         <f t="shared" si="0"/>
-        <v>0.14210999999999999</v>
+        <v>0.28421999999999997</v>
       </c>
       <c r="D6" s="1">
         <f t="shared" si="1"/>
-        <v>7198.6489339244254</v>
+        <v>3599.3244669622127</v>
       </c>
       <c r="E6">
         <v>1023</v>
       </c>
       <c r="G6" s="1">
         <f t="shared" si="2"/>
-        <v>7198</v>
+        <v>3599</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -7354,18 +7354,18 @@
       </c>
       <c r="C7" s="1">
         <f t="shared" si="0"/>
-        <v>0.16849</v>
+        <v>0.33698</v>
       </c>
       <c r="D7" s="1">
         <f t="shared" si="1"/>
-        <v>6071.5769481868356</v>
+        <v>3035.7884740934178</v>
       </c>
       <c r="E7">
         <v>1023</v>
       </c>
       <c r="G7" s="1">
         <f t="shared" si="2"/>
-        <v>6071</v>
+        <v>3035</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -7377,18 +7377,18 @@
       </c>
       <c r="C8" s="1">
         <f t="shared" si="0"/>
-        <v>0.20054</v>
+        <v>0.40107999999999999</v>
       </c>
       <c r="D8" s="1">
         <f t="shared" si="1"/>
-        <v>5101.2266879425551</v>
+        <v>2550.6133439712776</v>
       </c>
       <c r="E8">
         <v>1023</v>
       </c>
       <c r="G8" s="1">
         <f t="shared" si="2"/>
-        <v>5101</v>
+        <v>2550</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -7400,18 +7400,18 @@
       </c>
       <c r="C9" s="1">
         <f t="shared" si="0"/>
-        <v>0.27228000000000002</v>
+        <v>0.54456000000000004</v>
       </c>
       <c r="D9" s="1">
         <f t="shared" si="1"/>
-        <v>3757.1617452622299</v>
+        <v>1878.580872631115</v>
       </c>
       <c r="E9">
         <v>1023</v>
       </c>
       <c r="G9" s="1">
         <f t="shared" si="2"/>
-        <v>3757</v>
+        <v>1878</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
@@ -7423,18 +7423,18 @@
       </c>
       <c r="C10" s="1">
         <f t="shared" si="0"/>
-        <v>0.33994999999999997</v>
+        <v>0.67989999999999995</v>
       </c>
       <c r="D10" s="1">
         <f t="shared" si="1"/>
-        <v>3009.2660685394912</v>
+        <v>1504.6330342697456</v>
       </c>
       <c r="E10">
         <v>1023</v>
       </c>
       <c r="G10" s="1">
         <f t="shared" si="2"/>
-        <v>3009</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
@@ -7446,18 +7446,18 @@
       </c>
       <c r="C11" s="1">
         <f t="shared" si="0"/>
-        <v>0.44485000000000002</v>
+        <v>0.88970000000000005</v>
       </c>
       <c r="D11" s="1">
         <f t="shared" si="1"/>
-        <v>2299.6515679442509</v>
+        <v>1149.8257839721255</v>
       </c>
       <c r="E11">
         <v>1023</v>
       </c>
       <c r="G11" s="1">
         <f t="shared" si="2"/>
-        <v>2299</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
